--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-961919.5061111972</v>
+        <v>-963807.0876275989</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>61.63425920309675</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>227.2091157308878</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>17.75373650651796</v>
+        <v>79.30363001464858</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>50.03432215530847</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>299.3643161915796</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>149.3098822773978</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>217.2367324792702</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>252.4482195866016</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>304.6188321705645</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.47572607734799</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>123.8167699816754</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>74.96564483286818</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>179.1131792598531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1819,13 +1819,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>31.06546767194519</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>127.7158455815537</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>7.373640162800065</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>127.52099992756</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>164.3675597136119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>163.3521163017829</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>61.47226067794314</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>71.64266250431788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>84.07046874737804</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.6219986143266</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965513</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801194</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.21779139437402</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523556</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>94.54346395122759</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>174.5006126678924</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522975</v>
+        <v>111.7000900522953</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1686.741202187451</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,10 +4416,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5323736931987</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931987</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931987</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931987</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.7122078777245</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C5" t="n">
-        <v>880.7122078777245</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>522.446509270974</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>522.446509270974</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.312047941846</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,25 +4650,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>508.6979412980804</v>
+        <v>352.67413830922</v>
       </c>
       <c r="C7" t="n">
-        <v>508.6979412980804</v>
+        <v>352.67413830922</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>352.67413830922</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>204.7610447268269</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>204.7610447268269</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>204.7610447268269</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>508.6979412980804</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>508.6979412980804</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X7" t="n">
-        <v>508.6979412980804</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y7" t="n">
-        <v>508.6979412980804</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1341.294330781294</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C8" t="n">
-        <v>972.3318138408822</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>476.3305634893118</v>
       </c>
       <c r="F8" t="n">
         <v>221.3323618866839</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1727.894170845416</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1727.894170845416</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347314</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347314</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.2978374347314</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6713633309776</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6713633309776</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186419</v>
+        <v>488.0052342069292</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>488.0052342069293</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>341.115286709019</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>172.9399650288396</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>172.9399650288396</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1063.309379059235</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>835.3198281612173</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3198281612173</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5364,7 +5364,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.1994242851239</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="C16" t="n">
-        <v>657.1994242851239</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909233</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1132.676491634541</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>877.992003428654</v>
+        <v>1035.049847281402</v>
       </c>
       <c r="W16" t="n">
-        <v>877.992003428654</v>
+        <v>745.632677244441</v>
       </c>
       <c r="X16" t="n">
-        <v>877.992003428654</v>
+        <v>745.632677244441</v>
       </c>
       <c r="Y16" t="n">
-        <v>657.1994242851239</v>
+        <v>524.8400981009108</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5537,25 +5537,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123424</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123424</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123424</v>
+        <v>531.2650733929938</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123424</v>
+        <v>531.2650733929938</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123424</v>
+        <v>384.3751258950834</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123424</v>
+        <v>216.1998042149041</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W19" t="n">
-        <v>657.2731156405995</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X19" t="n">
-        <v>429.2835647425821</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="Y19" t="n">
-        <v>429.2835647425821</v>
+        <v>681.3817128053296</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,25 +5771,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5835,19 +5835,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1332.888432463345</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1043.759793676903</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>789.0753054710163</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340558</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340558</v>
+        <v>816.5074119443558</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905257</v>
+        <v>595.7148328008257</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.5547804049816</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>692.5547804049816</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>542.4381409926458</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102527</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799371</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.06397594712</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557904</v>
+        <v>1436.823077953919</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.13085534741</v>
+        <v>1436.823077953919</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.13085534741</v>
+        <v>1436.823077953919</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.764529585472</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="W25" t="n">
-        <v>913.3473595485116</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X25" t="n">
-        <v>913.3473595485116</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.5547804049816</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.4221461351941</v>
+        <v>672.4909068465488</v>
       </c>
       <c r="C28" t="n">
-        <v>563.4221461351941</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1302.921501718336</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1302.921501718336</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>1302.921501718336</v>
       </c>
       <c r="W28" t="n">
-        <v>745.0706109654338</v>
+        <v>1302.921501718336</v>
       </c>
       <c r="X28" t="n">
-        <v>745.0706109654338</v>
+        <v>1074.931950820319</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.0706109654338</v>
+        <v>854.1393716767885</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215254</v>
+        <v>656.2176762508383</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749892</v>
+        <v>543.0423586043023</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440243</v>
+        <v>448.6865844733375</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>356.5343561723153</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>265.4052739557759</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,49 +6622,49 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1785.313376463689</v>
       </c>
       <c r="U31" t="n">
-        <v>1623.942368323874</v>
+        <v>1551.945602958618</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.67912320479</v>
+        <v>1353.021980034102</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>1119.365675278513</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832554</v>
+        <v>947.1369896618662</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703945</v>
+        <v>782.105275799707</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6683,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010325</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,52 +6935,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7017,13 +7017,13 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506715</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7309,16 +7309,16 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103128</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,13 +7345,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7561,19 +7561,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.4536006314038</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>107.4098190767379</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>255.1718847266322</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>124.4217977422743</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.5401882047361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>159.001998409031</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,19 +24178,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>57.18000134477741</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>88.78552702204506</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>136.4485493056601</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>180.4949808195101</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>137.4770923110111</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>13.90099972226437</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389789</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>71.80084047860475</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>22.4337740273786</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1219319.023152329</v>
+        <v>1219319.02315233</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1219319.02315233</v>
+        <v>1219319.023152329</v>
       </c>
     </row>
     <row r="10">
@@ -26326,13 +26326,13 @@
         <v>156411.6238950835</v>
       </c>
       <c r="G2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950834</v>
       </c>
       <c r="I2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="J2" t="n">
         <v>156411.6238950835</v>
@@ -26341,19 +26341,19 @@
         <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728565</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086671</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284577</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
@@ -26430,34 +26430,34 @@
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007451</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020407</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,10 +26494,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>-66567.7728064736</v>
       </c>
       <c r="D6" t="n">
-        <v>-66567.77280647366</v>
+        <v>-66567.7728064736</v>
       </c>
       <c r="E6" t="n">
-        <v>-468652.4701865367</v>
+        <v>-468749.929312509</v>
       </c>
       <c r="F6" t="n">
-        <v>56507.56629035938</v>
+        <v>56410.1071643872</v>
       </c>
       <c r="G6" t="n">
-        <v>56507.5662903593</v>
+        <v>56410.10716438717</v>
       </c>
       <c r="H6" t="n">
-        <v>56507.56629035933</v>
+        <v>56410.1071643872</v>
       </c>
       <c r="I6" t="n">
-        <v>56507.56629035933</v>
+        <v>56410.10716438717</v>
       </c>
       <c r="J6" t="n">
-        <v>-119915.6529022335</v>
+        <v>-120013.1120282058</v>
       </c>
       <c r="K6" t="n">
-        <v>-4143.313065164533</v>
+        <v>-4161.806803099123</v>
       </c>
       <c r="L6" t="n">
-        <v>25814.82245463641</v>
+        <v>25814.82245463649</v>
       </c>
       <c r="M6" t="n">
-        <v>-98643.28597833388</v>
+        <v>-98643.28597833376</v>
       </c>
       <c r="N6" t="n">
-        <v>36157.72925550326</v>
+        <v>36157.72925550344</v>
       </c>
       <c r="O6" t="n">
-        <v>36157.72925550341</v>
+        <v>36157.72925550338</v>
       </c>
       <c r="P6" t="n">
-        <v>-8004.876047342186</v>
+        <v>-8004.876047342361</v>
       </c>
     </row>
   </sheetData>
@@ -26704,19 +26704,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964062</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26744,31 +26744,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108366</v>
+        <v>12.92863350108338</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>303.6386325679108</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>122.0318529865253</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>149.4930845921099</v>
+        <v>87.94319108397926</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>356.841723586403</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>70.36678448688946</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>6.861006564397371</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>34.90091084455776</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>154.4278261551098</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>65.1122685079045</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.35625410458931</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>22.61719266489378</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>410.0098272511729</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556562</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412276</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043199</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,7 +37865,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
